--- a/biology/Botanique/Parc_du_Danube_(Novi_Sad)/Parc_du_Danube_(Novi_Sad).xlsx
+++ b/biology/Botanique/Parc_du_Danube_(Novi_Sad)/Parc_du_Danube_(Novi_Sad).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc du Danube (en serbe cyrillique : Дунавски парк ; en serbe latin : Dunavski park) est un parc public situé à Novi Sad, la capitale de la province autonome de Voïvodine en Serbie. En raison de sa valeur, il est inscrit depuis 1998 sur la liste des monuments naturels de République de Serbie[1].
+Le parc du Danube (en serbe cyrillique : Дунавски парк ; en serbe latin : Dunavski park) est un parc public situé à Novi Sad, la capitale de la province autonome de Voïvodine en Serbie. En raison de sa valeur, il est inscrit depuis 1998 sur la liste des monuments naturels de République de Serbie.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Sculptures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs sculptures ont été érigées dans le parc :
 Nymphe par Đorđe Jovanović ;
@@ -573,7 +589,9 @@
           <t>Flore et faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
